--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H2">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I2">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J2">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N2">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O2">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P2">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q2">
-        <v>0.4307040879722222</v>
+        <v>0.137475530711</v>
       </c>
       <c r="R2">
-        <v>3.87633679175</v>
+        <v>1.237279776399</v>
       </c>
       <c r="S2">
-        <v>0.02134164251152203</v>
+        <v>0.005838495253181605</v>
       </c>
       <c r="T2">
-        <v>0.02134164251152203</v>
+        <v>0.005838495253181605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H3">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I3">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J3">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.959485</v>
       </c>
       <c r="O3">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P3">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q3">
-        <v>0.3019637547638889</v>
+        <v>0.2284322259383333</v>
       </c>
       <c r="R3">
-        <v>2.717673792875</v>
+        <v>2.055890033445</v>
       </c>
       <c r="S3">
-        <v>0.01496248279404176</v>
+        <v>0.009701366198893691</v>
       </c>
       <c r="T3">
-        <v>0.01496248279404176</v>
+        <v>0.009701366198893691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H4">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I4">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J4">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N4">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O4">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P4">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q4">
-        <v>0.0617348635</v>
+        <v>0.241660009489</v>
       </c>
       <c r="R4">
-        <v>0.5556137715</v>
+        <v>2.174940085401</v>
       </c>
       <c r="S4">
-        <v>0.003058999029978053</v>
+        <v>0.01026314145497933</v>
       </c>
       <c r="T4">
-        <v>0.003058999029978053</v>
+        <v>0.01026314145497933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H5">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I5">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J5">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N5">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O5">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P5">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q5">
-        <v>0.1510145427805556</v>
+        <v>0.1004296486916667</v>
       </c>
       <c r="R5">
-        <v>1.359130885025</v>
+        <v>0.903866838225</v>
       </c>
       <c r="S5">
-        <v>0.007482859986858131</v>
+        <v>0.004265181040818306</v>
       </c>
       <c r="T5">
-        <v>0.007482859986858131</v>
+        <v>0.004265181040818306</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H6">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I6">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J6">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N6">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O6">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P6">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q6">
-        <v>0.09541444206388888</v>
+        <v>0.2228898662483333</v>
       </c>
       <c r="R6">
-        <v>0.858729978575</v>
+        <v>2.006008796235</v>
       </c>
       <c r="S6">
-        <v>0.004727842084227387</v>
+        <v>0.009465985832845024</v>
       </c>
       <c r="T6">
-        <v>0.004727842084227387</v>
+        <v>0.009465985832845024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.976217999999999</v>
       </c>
       <c r="I7">
-        <v>0.9389328624967765</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J7">
-        <v>0.9389328624967767</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N7">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O7">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P7">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q7">
-        <v>7.841229755193332</v>
+        <v>3.308476358054</v>
       </c>
       <c r="R7">
-        <v>70.57106779674</v>
+        <v>29.776287222486</v>
       </c>
       <c r="S7">
-        <v>0.3885375759350541</v>
+        <v>0.1405088120908504</v>
       </c>
       <c r="T7">
-        <v>0.3885375759350541</v>
+        <v>0.1405088120908505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.976217999999999</v>
       </c>
       <c r="I8">
-        <v>0.9389328624967765</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J8">
-        <v>0.9389328624967767</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.959485</v>
       </c>
       <c r="O8">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P8">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q8">
         <v>5.497433725303333</v>
@@ -948,10 +948,10 @@
         <v>49.47690352772999</v>
       </c>
       <c r="S8">
-        <v>0.272401095259108</v>
+        <v>0.2334723899145186</v>
       </c>
       <c r="T8">
-        <v>0.272401095259108</v>
+        <v>0.2334723899145187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.976217999999999</v>
       </c>
       <c r="I9">
-        <v>0.9389328624967765</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J9">
-        <v>0.9389328624967767</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N9">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O9">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P9">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q9">
-        <v>1.12392071988</v>
+        <v>5.815772624746</v>
       </c>
       <c r="R9">
-        <v>10.11528647892</v>
+        <v>52.341953622714</v>
       </c>
       <c r="S9">
-        <v>0.05569093696765288</v>
+        <v>0.2469920333280527</v>
       </c>
       <c r="T9">
-        <v>0.05569093696765289</v>
+        <v>0.2469920333280527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.976217999999999</v>
       </c>
       <c r="I10">
-        <v>0.9389328624967765</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J10">
-        <v>0.9389328624967767</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N10">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O10">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P10">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q10">
-        <v>2.749311556091333</v>
+        <v>2.416932792516667</v>
       </c>
       <c r="R10">
-        <v>24.743804004822</v>
+        <v>21.75239513265</v>
       </c>
       <c r="S10">
-        <v>0.1362300150415144</v>
+        <v>0.1026455439988959</v>
       </c>
       <c r="T10">
-        <v>0.1362300150415144</v>
+        <v>0.1026455439988959</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.976217999999999</v>
       </c>
       <c r="I11">
-        <v>0.9389328624967765</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J11">
-        <v>0.9389328624967767</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N11">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O11">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P11">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q11">
-        <v>1.737077922127333</v>
+        <v>5.364051690643333</v>
       </c>
       <c r="R11">
-        <v>15.633701299146</v>
+        <v>48.27646521579</v>
       </c>
       <c r="S11">
-        <v>0.08607323929344726</v>
+        <v>0.2278077427428034</v>
       </c>
       <c r="T11">
-        <v>0.08607323929344728</v>
+        <v>0.2278077427428035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03362233333333333</v>
+        <v>0.031594</v>
       </c>
       <c r="H12">
-        <v>0.100867</v>
+        <v>0.09478200000000001</v>
       </c>
       <c r="I12">
-        <v>0.009493311096596161</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="J12">
-        <v>0.009493311096596162</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N12">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O12">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P12">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q12">
-        <v>0.07928067747888888</v>
+        <v>0.031433154946</v>
       </c>
       <c r="R12">
-        <v>0.7135260973099999</v>
+        <v>0.282898394514</v>
       </c>
       <c r="S12">
-        <v>0.003928404498763068</v>
+        <v>0.001334945389885725</v>
       </c>
       <c r="T12">
-        <v>0.003928404498763069</v>
+        <v>0.001334945389885725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03362233333333333</v>
+        <v>0.031594</v>
       </c>
       <c r="H13">
-        <v>0.100867</v>
+        <v>0.09478200000000001</v>
       </c>
       <c r="I13">
-        <v>0.009493311096596161</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="J13">
-        <v>0.009493311096596162</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.959485</v>
       </c>
       <c r="O13">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P13">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q13">
-        <v>0.05558315261055555</v>
+        <v>0.05222998969666667</v>
       </c>
       <c r="R13">
-        <v>0.500248373495</v>
+        <v>0.47006990727</v>
       </c>
       <c r="S13">
-        <v>0.002754178113940618</v>
+        <v>0.002218173265748394</v>
       </c>
       <c r="T13">
-        <v>0.002754178113940619</v>
+        <v>0.002218173265748394</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03362233333333333</v>
+        <v>0.031594</v>
       </c>
       <c r="H14">
-        <v>0.100867</v>
+        <v>0.09478200000000001</v>
       </c>
       <c r="I14">
-        <v>0.009493311096596161</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="J14">
-        <v>0.009493311096596162</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N14">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O14">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P14">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q14">
-        <v>0.01136367622</v>
+        <v>0.05525446225400001</v>
       </c>
       <c r="R14">
-        <v>0.10227308598</v>
+        <v>0.497290160286</v>
       </c>
       <c r="S14">
-        <v>0.0005630768833556206</v>
+        <v>0.002346620623456654</v>
       </c>
       <c r="T14">
-        <v>0.0005630768833556208</v>
+        <v>0.002346620623456654</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03362233333333333</v>
+        <v>0.031594</v>
       </c>
       <c r="H15">
-        <v>0.100867</v>
+        <v>0.09478200000000001</v>
       </c>
       <c r="I15">
-        <v>0.009493311096596161</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="J15">
-        <v>0.009493311096596162</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N15">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O15">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P15">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q15">
-        <v>0.02779758909922222</v>
+        <v>0.02296278248333334</v>
       </c>
       <c r="R15">
-        <v>0.250178301893</v>
+        <v>0.20666504235</v>
       </c>
       <c r="S15">
-        <v>0.00137738699446949</v>
+        <v>0.0009752142496588743</v>
       </c>
       <c r="T15">
-        <v>0.001377386994469491</v>
+        <v>0.0009752142496588743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03362233333333333</v>
+        <v>0.031594</v>
       </c>
       <c r="H16">
-        <v>0.100867</v>
+        <v>0.09478200000000001</v>
       </c>
       <c r="I16">
-        <v>0.009493311096596161</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="J16">
-        <v>0.009493311096596162</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N16">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O16">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P16">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q16">
-        <v>0.01756315256655555</v>
+        <v>0.05096275435666667</v>
       </c>
       <c r="R16">
-        <v>0.158068373099</v>
+        <v>0.45866478921</v>
       </c>
       <c r="S16">
-        <v>0.0008702646060673639</v>
+        <v>0.002164354615411211</v>
       </c>
       <c r="T16">
-        <v>0.000870264606067364</v>
+        <v>0.002164354615411211</v>
       </c>
     </row>
   </sheetData>
